--- a/data/TROOPS-baseline-data.xlsx
+++ b/data/TROOPS-baseline-data.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21421"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10504"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/aaronconway/OneDrive - University of Toronto/phd/ecf 2014/ASERT reliability study/data/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/aaronconway/TROOPS-reliability/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="447" documentId="11_306ED05FB187F49BE4C750FFAADB54A82AD2A7EC" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{E185B953-186C-4872-B5A0-A7A749F6837D}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{35AC474B-01B5-944E-A81E-411C8580570C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="3780" yWindow="7620" windowWidth="28800" windowHeight="12300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -23,7 +23,10 @@
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
         <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -31,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="93" uniqueCount="48">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="135" uniqueCount="52">
   <si>
     <t>ID</t>
   </si>
@@ -81,15 +84,24 @@
     <t>OxygenDevice</t>
   </si>
   <si>
+    <t>Sex</t>
+  </si>
+  <si>
     <t>ICD change</t>
   </si>
   <si>
     <t>HM</t>
   </si>
   <si>
+    <t>M</t>
+  </si>
+  <si>
     <t>ICD box change</t>
   </si>
   <si>
+    <t>F</t>
+  </si>
+  <si>
     <t>PPM gen change</t>
   </si>
   <si>
@@ -175,13 +187,16 @@
   </si>
   <si>
     <t>SVT ablation</t>
+  </si>
+  <si>
+    <t>Age</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -218,10 +233,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -502,16 +516,16 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:P41"/>
+  <dimension ref="A1:R41"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0" xr3:uid="{AEA406A1-0E4B-5B11-9CD5-51D6E497D94C}">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="P24" sqref="P24"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane xSplit="1" topLeftCell="K1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="Q1" sqref="Q1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:16">
+    <row r="1" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -560,8 +574,14 @@
       <c r="P1" s="1" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="2" spans="1:16">
+      <c r="Q1" t="s">
+        <v>51</v>
+      </c>
+      <c r="R1" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="2" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A2">
         <v>1</v>
       </c>
@@ -590,7 +610,7 @@
         <v>0</v>
       </c>
       <c r="J2" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="K2">
         <v>1345</v>
@@ -608,10 +628,16 @@
         <v>6</v>
       </c>
       <c r="P2" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="3" spans="1:16">
+        <v>18</v>
+      </c>
+      <c r="Q2">
+        <v>83</v>
+      </c>
+      <c r="R2" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="3" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A3">
         <v>2</v>
       </c>
@@ -640,7 +666,7 @@
         <v>0</v>
       </c>
       <c r="J3" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="K3">
         <v>1700</v>
@@ -658,10 +684,16 @@
         <v>6</v>
       </c>
       <c r="P3" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="4" spans="1:16">
+        <v>18</v>
+      </c>
+      <c r="Q3">
+        <v>66</v>
+      </c>
+      <c r="R3" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="4" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A4">
         <v>3</v>
       </c>
@@ -690,7 +722,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="K4">
         <v>1915</v>
@@ -708,10 +740,16 @@
         <v>6</v>
       </c>
       <c r="P4" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="5" spans="1:16">
+        <v>18</v>
+      </c>
+      <c r="Q4">
+        <v>76</v>
+      </c>
+      <c r="R4" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="5" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A5">
         <v>4</v>
       </c>
@@ -740,7 +778,7 @@
         <v>0</v>
       </c>
       <c r="J5" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="K5">
         <v>1655</v>
@@ -749,10 +787,16 @@
         <v>6</v>
       </c>
       <c r="P5" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="6" spans="1:16">
+        <v>18</v>
+      </c>
+      <c r="Q5">
+        <v>65</v>
+      </c>
+      <c r="R5" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="6" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A6">
         <v>5</v>
       </c>
@@ -781,7 +825,7 @@
         <v>0</v>
       </c>
       <c r="J6" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="K6">
         <v>1410</v>
@@ -799,10 +843,16 @@
         <v>6</v>
       </c>
       <c r="P6" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="7" spans="1:16">
+        <v>18</v>
+      </c>
+      <c r="Q6">
+        <v>59</v>
+      </c>
+      <c r="R6" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="7" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A7">
         <v>6</v>
       </c>
@@ -831,7 +881,7 @@
         <v>1</v>
       </c>
       <c r="J7" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="K7">
         <v>1541</v>
@@ -849,10 +899,16 @@
         <v>6</v>
       </c>
       <c r="P7" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="8" spans="1:16">
+        <v>18</v>
+      </c>
+      <c r="Q7">
+        <v>68</v>
+      </c>
+      <c r="R7" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="8" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A8">
         <v>7</v>
       </c>
@@ -881,7 +937,7 @@
         <v>0</v>
       </c>
       <c r="J8" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="K8">
         <v>1630</v>
@@ -899,10 +955,16 @@
         <v>6</v>
       </c>
       <c r="P8" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="9" spans="1:16">
+        <v>18</v>
+      </c>
+      <c r="Q8">
+        <v>46</v>
+      </c>
+      <c r="R8" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="9" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A9">
         <v>8</v>
       </c>
@@ -931,7 +993,7 @@
         <v>0</v>
       </c>
       <c r="J9" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="K9">
         <v>1355</v>
@@ -946,10 +1008,16 @@
         <v>6</v>
       </c>
       <c r="P9" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="10" spans="1:16">
+        <v>18</v>
+      </c>
+      <c r="Q9">
+        <v>70</v>
+      </c>
+      <c r="R9" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="10" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A10">
         <v>9</v>
       </c>
@@ -978,7 +1046,7 @@
         <v>0</v>
       </c>
       <c r="J10" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="K10">
         <v>1010</v>
@@ -996,10 +1064,16 @@
         <v>6</v>
       </c>
       <c r="P10" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="11" spans="1:16">
+        <v>28</v>
+      </c>
+      <c r="Q10">
+        <v>61</v>
+      </c>
+      <c r="R10" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="11" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A11">
         <v>10</v>
       </c>
@@ -1028,7 +1102,7 @@
         <v>0</v>
       </c>
       <c r="J11" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="K11">
         <v>1535</v>
@@ -1042,14 +1116,20 @@
       <c r="N11">
         <v>200</v>
       </c>
-      <c r="O11" s="2">
-        <v>0</v>
-      </c>
-      <c r="P11" s="2" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="12" spans="1:16">
+      <c r="O11">
+        <v>0</v>
+      </c>
+      <c r="P11" t="s">
+        <v>30</v>
+      </c>
+      <c r="Q11">
+        <v>50</v>
+      </c>
+      <c r="R11" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="12" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A12">
         <v>11</v>
       </c>
@@ -1078,7 +1158,7 @@
         <v>0</v>
       </c>
       <c r="J12" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="K12">
         <v>706</v>
@@ -1096,10 +1176,16 @@
         <v>6</v>
       </c>
       <c r="P12" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="13" spans="1:16">
+        <v>18</v>
+      </c>
+      <c r="Q12">
+        <v>76</v>
+      </c>
+      <c r="R12" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="13" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A13">
         <v>12</v>
       </c>
@@ -1128,7 +1214,7 @@
         <v>0</v>
       </c>
       <c r="J13" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="K13">
         <v>1210</v>
@@ -1146,10 +1232,16 @@
         <v>6</v>
       </c>
       <c r="P13" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="14" spans="1:16">
+        <v>18</v>
+      </c>
+      <c r="Q13">
+        <v>60</v>
+      </c>
+      <c r="R13" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="14" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A14">
         <v>13</v>
       </c>
@@ -1178,7 +1270,7 @@
         <v>0</v>
       </c>
       <c r="J14" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="K14">
         <v>755</v>
@@ -1189,14 +1281,20 @@
       <c r="N14">
         <v>50</v>
       </c>
-      <c r="O14" s="2">
-        <v>0</v>
-      </c>
-      <c r="P14" s="2" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="15" spans="1:16">
+      <c r="O14">
+        <v>0</v>
+      </c>
+      <c r="P14" t="s">
+        <v>30</v>
+      </c>
+      <c r="Q14">
+        <v>69</v>
+      </c>
+      <c r="R14" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="15" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A15">
         <v>14</v>
       </c>
@@ -1225,7 +1323,7 @@
         <v>0</v>
       </c>
       <c r="J15" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="K15">
         <v>920</v>
@@ -1240,10 +1338,16 @@
         <v>6</v>
       </c>
       <c r="P15" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="16" spans="1:16">
+        <v>18</v>
+      </c>
+      <c r="Q15">
+        <v>60</v>
+      </c>
+      <c r="R15" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="16" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A16">
         <v>15</v>
       </c>
@@ -1272,7 +1376,7 @@
         <v>0</v>
       </c>
       <c r="J16" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="K16">
         <v>1039</v>
@@ -1290,10 +1394,16 @@
         <v>6</v>
       </c>
       <c r="P16" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="17" spans="1:16">
+        <v>18</v>
+      </c>
+      <c r="Q16">
+        <v>73</v>
+      </c>
+      <c r="R16" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="17" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A17">
         <v>16</v>
       </c>
@@ -1322,7 +1432,7 @@
         <v>0</v>
       </c>
       <c r="J17" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="K17">
         <v>742</v>
@@ -1340,10 +1450,16 @@
         <v>6</v>
       </c>
       <c r="P17" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="18" spans="1:16">
+        <v>18</v>
+      </c>
+      <c r="Q17">
+        <v>57</v>
+      </c>
+      <c r="R17" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="18" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A18">
         <v>17</v>
       </c>
@@ -1372,7 +1488,7 @@
         <v>0</v>
       </c>
       <c r="J18" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="K18">
         <v>940</v>
@@ -1390,10 +1506,16 @@
         <v>6</v>
       </c>
       <c r="P18" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="19" spans="1:16">
+        <v>18</v>
+      </c>
+      <c r="Q18">
+        <v>61</v>
+      </c>
+      <c r="R18" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="19" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A19">
         <v>18</v>
       </c>
@@ -1422,7 +1544,7 @@
         <v>0</v>
       </c>
       <c r="J19" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="K19">
         <v>920</v>
@@ -1440,10 +1562,16 @@
         <v>6</v>
       </c>
       <c r="P19" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="20" spans="1:16">
+        <v>18</v>
+      </c>
+      <c r="Q19">
+        <v>88</v>
+      </c>
+      <c r="R19" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="20" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A20">
         <v>19</v>
       </c>
@@ -1472,7 +1600,7 @@
         <v>0</v>
       </c>
       <c r="J20" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="K20">
         <v>1039</v>
@@ -1490,10 +1618,16 @@
         <v>6</v>
       </c>
       <c r="P20" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="21" spans="1:16">
+        <v>18</v>
+      </c>
+      <c r="Q20">
+        <v>71</v>
+      </c>
+      <c r="R20" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="21" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A21">
         <v>20</v>
       </c>
@@ -1522,7 +1656,7 @@
         <v>0</v>
       </c>
       <c r="J21" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="K21">
         <v>1235</v>
@@ -1540,10 +1674,16 @@
         <v>6</v>
       </c>
       <c r="P21" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="22" spans="1:16">
+        <v>18</v>
+      </c>
+      <c r="Q21">
+        <v>78</v>
+      </c>
+      <c r="R21" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="22" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A22">
         <v>21</v>
       </c>
@@ -1572,7 +1712,7 @@
         <v>0</v>
       </c>
       <c r="J22" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="K22">
         <v>822</v>
@@ -1590,10 +1730,16 @@
         <v>4</v>
       </c>
       <c r="P22" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="23" spans="1:16">
+        <v>28</v>
+      </c>
+      <c r="Q22">
+        <v>68</v>
+      </c>
+      <c r="R22" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="23" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A23">
         <v>22</v>
       </c>
@@ -1622,7 +1768,7 @@
         <v>0</v>
       </c>
       <c r="J23" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="K23">
         <v>945</v>
@@ -1640,10 +1786,16 @@
         <v>6</v>
       </c>
       <c r="P23" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="24" spans="1:16">
+        <v>18</v>
+      </c>
+      <c r="Q23">
+        <v>68</v>
+      </c>
+      <c r="R23" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="24" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A24">
         <v>23</v>
       </c>
@@ -1672,7 +1824,7 @@
         <v>0</v>
       </c>
       <c r="J24" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="K24">
         <v>1423</v>
@@ -1683,8 +1835,14 @@
       <c r="M24">
         <v>2.5</v>
       </c>
-    </row>
-    <row r="25" spans="1:16">
+      <c r="Q24">
+        <v>71</v>
+      </c>
+      <c r="R24" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="25" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A25">
         <v>24</v>
       </c>
@@ -1713,7 +1871,7 @@
         <v>0</v>
       </c>
       <c r="J25" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="K25">
         <v>1630</v>
@@ -1722,10 +1880,16 @@
         <v>8</v>
       </c>
       <c r="P25" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="26" spans="1:16">
+        <v>18</v>
+      </c>
+      <c r="Q25">
+        <v>79</v>
+      </c>
+      <c r="R25" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="26" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A26">
         <v>25</v>
       </c>
@@ -1754,7 +1918,7 @@
         <v>0</v>
       </c>
       <c r="J26" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="K26">
         <v>1327</v>
@@ -1769,10 +1933,16 @@
         <v>6</v>
       </c>
       <c r="P26" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="27" spans="1:16">
+        <v>18</v>
+      </c>
+      <c r="Q26">
+        <v>62</v>
+      </c>
+      <c r="R26" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="27" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A27">
         <v>26</v>
       </c>
@@ -1801,7 +1971,7 @@
         <v>0</v>
       </c>
       <c r="J27" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="K27">
         <v>1220</v>
@@ -1819,10 +1989,16 @@
         <v>6</v>
       </c>
       <c r="P27" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="28" spans="1:16">
+        <v>18</v>
+      </c>
+      <c r="Q27">
+        <v>82</v>
+      </c>
+      <c r="R27" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="28" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A28">
         <v>27</v>
       </c>
@@ -1851,7 +2027,7 @@
         <v>0</v>
       </c>
       <c r="J28" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="K28">
         <v>1643</v>
@@ -1866,10 +2042,16 @@
         <v>0</v>
       </c>
       <c r="P28" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="29" spans="1:16">
+        <v>18</v>
+      </c>
+      <c r="Q28">
+        <v>72</v>
+      </c>
+      <c r="R28" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="29" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A29">
         <v>28</v>
       </c>
@@ -1898,7 +2080,7 @@
         <v>0</v>
       </c>
       <c r="J29" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="K29">
         <v>1420</v>
@@ -1912,8 +2094,14 @@
       <c r="O29">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="1:16">
+      <c r="Q29">
+        <v>62</v>
+      </c>
+      <c r="R29" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="30" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A30">
         <v>29</v>
       </c>
@@ -1942,7 +2130,7 @@
         <v>0</v>
       </c>
       <c r="J30" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="K30">
         <v>1350</v>
@@ -1960,10 +2148,16 @@
         <v>6</v>
       </c>
       <c r="P30" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="31" spans="1:16">
+        <v>18</v>
+      </c>
+      <c r="Q30">
+        <v>69</v>
+      </c>
+      <c r="R30" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="31" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A31">
         <v>30</v>
       </c>
@@ -1992,7 +2186,7 @@
         <v>0</v>
       </c>
       <c r="J31" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="K31">
         <v>1620</v>
@@ -2010,10 +2204,16 @@
         <v>6</v>
       </c>
       <c r="P31" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="32" spans="1:16">
+        <v>28</v>
+      </c>
+      <c r="Q31">
+        <v>80</v>
+      </c>
+      <c r="R31" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="32" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A32">
         <v>31</v>
       </c>
@@ -2042,7 +2242,7 @@
         <v>0</v>
       </c>
       <c r="J32" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="K32">
         <v>1915</v>
@@ -2060,10 +2260,16 @@
         <v>6</v>
       </c>
       <c r="P32" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="33" spans="1:16">
+        <v>18</v>
+      </c>
+      <c r="Q32">
+        <v>68</v>
+      </c>
+      <c r="R32" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="33" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A33">
         <v>32</v>
       </c>
@@ -2092,7 +2298,7 @@
         <v>0</v>
       </c>
       <c r="J33" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="K33">
         <v>1740</v>
@@ -2107,10 +2313,16 @@
         <v>6</v>
       </c>
       <c r="P33" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="34" spans="1:16">
+        <v>18</v>
+      </c>
+      <c r="Q33">
+        <v>79</v>
+      </c>
+      <c r="R33" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="34" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A34">
         <v>33</v>
       </c>
@@ -2139,7 +2351,7 @@
         <v>0</v>
       </c>
       <c r="J34" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="K34">
         <v>1700</v>
@@ -2157,10 +2369,16 @@
         <v>6</v>
       </c>
       <c r="P34" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="35" spans="1:16">
+        <v>18</v>
+      </c>
+      <c r="Q34">
+        <v>69</v>
+      </c>
+      <c r="R34" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="35" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A35">
         <v>34</v>
       </c>
@@ -2189,7 +2407,7 @@
         <v>0</v>
       </c>
       <c r="J35" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="K35">
         <v>1530</v>
@@ -2198,10 +2416,16 @@
         <v>3</v>
       </c>
       <c r="P35" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="36" spans="1:16">
+        <v>28</v>
+      </c>
+      <c r="Q35">
+        <v>82</v>
+      </c>
+      <c r="R35" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="36" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A36">
         <v>35</v>
       </c>
@@ -2230,7 +2454,7 @@
         <v>0</v>
       </c>
       <c r="J36" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="K36">
         <v>1120</v>
@@ -2248,10 +2472,16 @@
         <v>6</v>
       </c>
       <c r="P36" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="37" spans="1:16">
+        <v>18</v>
+      </c>
+      <c r="Q36">
+        <v>40</v>
+      </c>
+      <c r="R36" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="37" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A37">
         <v>36</v>
       </c>
@@ -2280,7 +2510,7 @@
         <v>0</v>
       </c>
       <c r="J37" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="K37">
         <v>1350</v>
@@ -2295,10 +2525,16 @@
         <v>50</v>
       </c>
       <c r="P37" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="38" spans="1:16">
+        <v>30</v>
+      </c>
+      <c r="Q37">
+        <v>75</v>
+      </c>
+      <c r="R37" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="38" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A38">
         <v>37</v>
       </c>
@@ -2327,13 +2563,19 @@
         <v>0</v>
       </c>
       <c r="J38" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="K38">
         <v>750</v>
       </c>
-    </row>
-    <row r="39" spans="1:16">
+      <c r="Q38">
+        <v>53</v>
+      </c>
+      <c r="R38" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="39" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A39">
         <v>38</v>
       </c>
@@ -2362,7 +2604,7 @@
         <v>0</v>
       </c>
       <c r="J39" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="K39">
         <v>1207</v>
@@ -2380,10 +2622,16 @@
         <v>6</v>
       </c>
       <c r="P39" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="40" spans="1:16">
+        <v>18</v>
+      </c>
+      <c r="Q39">
+        <v>89</v>
+      </c>
+      <c r="R39" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="40" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A40">
         <v>39</v>
       </c>
@@ -2412,7 +2660,7 @@
         <v>0</v>
       </c>
       <c r="J40" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="K40">
         <v>1515</v>
@@ -2430,10 +2678,16 @@
         <v>6</v>
       </c>
       <c r="P40" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="41" spans="1:16">
+        <v>28</v>
+      </c>
+      <c r="Q40">
+        <v>37</v>
+      </c>
+      <c r="R40" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="41" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A41">
         <v>40</v>
       </c>
@@ -2462,7 +2716,7 @@
         <v>0</v>
       </c>
       <c r="J41" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="K41">
         <v>1125</v>
@@ -2480,7 +2734,13 @@
         <v>6</v>
       </c>
       <c r="P41" t="s">
-        <v>17</v>
+        <v>18</v>
+      </c>
+      <c r="Q41">
+        <v>49</v>
+      </c>
+      <c r="R41" t="s">
+        <v>21</v>
       </c>
     </row>
   </sheetData>
